--- a/medicine/Psychotrope/Un_air_de_famille_(film,_1996)/Un_air_de_famille_(film,_1996).xlsx
+++ b/medicine/Psychotrope/Un_air_de_famille_(film,_1996)/Un_air_de_famille_(film,_1996).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un air de famille est un film français réalisé par Cédric Klapisch et sorti en 1996. Il s'agit de l'adaptation de la pièce de théâtre du même nom d'Agnès Jaoui et Jean-Pierre Bacri[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un air de famille est un film français réalisé par Cédric Klapisch et sorti en 1996. Il s'agit de l'adaptation de la pièce de théâtre du même nom d'Agnès Jaoui et Jean-Pierre Bacri.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Ménard se réunit toutes les semaines « Au Père Tranquille », le café tenu par Henri, le fils aîné. Cette fois-ci, elle s'y rassemble pour célébrer le 35e anniversaire de Yolande, épouse de Philippe, le cadet. Pendant que l'on attend Arlette, la femme d'Henri qui, on l'apprendra en début de film, vient tout juste de quitter le domicile conjugal, les petites préoccupations de Philippe, cadre dans une société d'informatique, prennent rapidement le pas sur les politesses d'usage. Comme sa mère ne manque jamais de le rappeler, celui-ci occupe une position importante dans une grande entreprise de programmation de la région. Elle s'inquiète également du célibat de sa fille Betty, la benjamine, qui sort secrètement avec Denis, le serveur du « Père tranquille ». Alors que les vieilles rancunes ressurgissent, le ton ne cesse de monter jusqu'à l'avènement d'un nouvel ordre familial.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Un air de famille
 Titre international : Family Resemblances
@@ -566,7 +582,7 @@
 Langue : français
 Classification du film : Tous publics
 Visa d'exploitation no 87 955
-Budget : 3.8M€[2]
+Budget : 3.8M€
 Dates de sortie :
  : 6 novembre 1996
  : 12 juin 1998
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean-Pierre Bacri : Henri Ménard, le patron du café
 Jean-Pierre Darroussin : Denis, l'employé du café
@@ -614,7 +632,7 @@
 Albert Parisio : un consommateur
 Sophie Simon : la mère en 1967
 Alain Guillo : le présentateur TV
-Aurélie Remacle[3] : Betty en 1967
+Aurélie Remacle : Betty en 1967
 Nicolas Taieb : Henri en 1967
 Ludovic Taieb : Philippe en 1967
 Romain Le Grand : Kevin</t>
@@ -647,14 +665,89 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genèse et développement
-Le film est inspiré de la pièce de théâtre Un air de famille de Jean-Pierre Bacri et Agnès Jaoui, deuxième pièce du couple d'auteurs, après Cuisine et Dépendances. Ces deux pièces ont chacune obtenu le Molière du meilleur spectacle comique (respectivement en 1992 et 1995).
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est inspiré de la pièce de théâtre Un air de famille de Jean-Pierre Bacri et Agnès Jaoui, deuxième pièce du couple d'auteurs, après Cuisine et Dépendances. Ces deux pièces ont chacune obtenu le Molière du meilleur spectacle comique (respectivement en 1992 et 1995).
 La distribution du film est identique à celle de la pièce.
-Tournage
-Les scènes d'intérieur du film ont été tournées en studio, aux studios SETS de Stains.
-Les scènes d'extérieur du film ont été tournées à Stains (1, place de la Grande Ceinture), au "Café de la Gare", fermé depuis. Le passage à niveau a été supprimé depuis. Jean-Pierre Bacri essaye d'interpeller sa compagne depuis le passage Elisabeth de Saint-Ouen (Seine-Saint-Denis)[4].
-Musiques additionnelles
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les scènes d'intérieur du film ont été tournées en studio, aux studios SETS de Stains.
+Les scènes d'extérieur du film ont été tournées à Stains (1, place de la Grande Ceinture), au "Café de la Gare", fermé depuis. Le passage à niveau a été supprimé depuis. Jean-Pierre Bacri essaye d'interpeller sa compagne depuis le passage Elisabeth de Saint-Ouen (Seine-Saint-Denis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musiques additionnelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
  Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Les scènes de flash-back sont systématiquement accompagnées de la chanson Come prima interprétée par Dalida.
 La musique sur laquelle Jean-Pierre Darroussin et Catherine Frot dansent un rock plein de rythme est People Have the Power, de Patti Smith, créditée "Patty" au générique de fin.
@@ -662,74 +755,115 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Un_air_de_famille_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Un_air_de_famille_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Box-office France : 2 442 289 entrées
-Box-office Europe : 2 665 680 entrées[5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Un_air_de_famille_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Un_air_de_famille_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Box-office Europe : 2 665 680 entrées</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompenses
-César 1997 :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>César 1997 :
 Meilleur second rôle masculin pour Jean-Pierre Darroussin
 Meilleur second rôle féminin pour Catherine Frot
 Meilleur scénario, original ou adaptation pour Cédric Klapisch, Agnès Jaoui et Jean-Pierre Bacri
-Prix spécial du jury et du public au Festival de Montréal 1996[6].
+Prix spécial du jury et du public au Festival de Montréal 1996.
 Lumières de la presse internationale 1997 :
 Meilleur réalisateur pour Cédric Klapisch
-Meilleur scénario, original ou adaptation pour Cédric Klapisch, Agnès Jaoui et Jean-Pierre Bacri
-Nominations
-César 1997 :
+Meilleur scénario, original ou adaptation pour Cédric Klapisch, Agnès Jaoui et Jean-Pierre Bacri</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Un_air_de_famille_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>César 1997 :
 Meilleur réalisateur pour Cédric Klapisch
 Meilleur film
 Meilleur second rôle féminin pour Agnès Jaoui
